--- a/data/pca/factorExposure/factorExposure_2013-02-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-02-06.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.0006818129088753092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001852149730744369</v>
+      </c>
+      <c r="C2">
+        <v>-0.03196538675894463</v>
+      </c>
+      <c r="D2">
+        <v>-0.005385761571037787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0006994219841087938</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.00628870105250293</v>
+      </c>
+      <c r="C4">
+        <v>-0.08477255800892124</v>
+      </c>
+      <c r="D4">
+        <v>-0.07872232686144218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-6.804228181484264e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01411469917997495</v>
+      </c>
+      <c r="C6">
+        <v>-0.1138156050452111</v>
+      </c>
+      <c r="D6">
+        <v>-0.03237075399322688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.001526326727131474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.005005002124119143</v>
+      </c>
+      <c r="C7">
+        <v>-0.05762568067132243</v>
+      </c>
+      <c r="D7">
+        <v>-0.03616682060192143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0007337934015248919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005815836124575208</v>
+      </c>
+      <c r="C8">
+        <v>-0.03819868879964496</v>
+      </c>
+      <c r="D8">
+        <v>-0.04589925292635828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003420063067047962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004395392657516054</v>
+      </c>
+      <c r="C9">
+        <v>-0.07065879659613847</v>
+      </c>
+      <c r="D9">
+        <v>-0.07116759629293899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.002691720394523788</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005436985502348449</v>
+      </c>
+      <c r="C10">
+        <v>-0.05698094663770151</v>
+      </c>
+      <c r="D10">
+        <v>0.1973807691396197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.002705406939440421</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005784967834095188</v>
+      </c>
+      <c r="C11">
+        <v>-0.08066430584454741</v>
+      </c>
+      <c r="D11">
+        <v>-0.06053251328677683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.0003685945639139074</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004059926621248587</v>
+      </c>
+      <c r="C12">
+        <v>-0.06406350767929439</v>
+      </c>
+      <c r="D12">
+        <v>-0.04749182946131908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.003079380378220686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008666987319047768</v>
+      </c>
+      <c r="C13">
+        <v>-0.06597557937393561</v>
+      </c>
+      <c r="D13">
+        <v>-0.06312884245270096</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.001213616074153384</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001604424931122623</v>
+      </c>
+      <c r="C14">
+        <v>-0.046527849524733</v>
+      </c>
+      <c r="D14">
+        <v>-0.00687891065724479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0007495842846522493</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.006065366353661447</v>
+      </c>
+      <c r="C15">
+        <v>-0.0428876749889398</v>
+      </c>
+      <c r="D15">
+        <v>-0.02740678276395504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001045011658883855</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005087708232181286</v>
+      </c>
+      <c r="C16">
+        <v>-0.06570583356263145</v>
+      </c>
+      <c r="D16">
+        <v>-0.04682268218744796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0005497240935344797</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008900713247850378</v>
+      </c>
+      <c r="C20">
+        <v>-0.06588515327840956</v>
+      </c>
+      <c r="D20">
+        <v>-0.04378341001121832</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.005482915605775295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.01004003434413702</v>
+      </c>
+      <c r="C21">
+        <v>-0.02204240177528026</v>
+      </c>
+      <c r="D21">
+        <v>-0.03720047894623123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01740607715103789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006662679051782612</v>
+      </c>
+      <c r="C22">
+        <v>-0.09529765654638536</v>
+      </c>
+      <c r="D22">
+        <v>-0.1073491253405365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0177149486737142</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006478429060005442</v>
+      </c>
+      <c r="C23">
+        <v>-0.0961097291906312</v>
+      </c>
+      <c r="D23">
+        <v>-0.1074518347530518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.001474384658518472</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005431126754599527</v>
+      </c>
+      <c r="C24">
+        <v>-0.07617667425387672</v>
+      </c>
+      <c r="D24">
+        <v>-0.06096764850054256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.003882265930401059</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003008807864405025</v>
+      </c>
+      <c r="C25">
+        <v>-0.07815875159473294</v>
+      </c>
+      <c r="D25">
+        <v>-0.06641063069516003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.00517259735373775</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003638379038916591</v>
+      </c>
+      <c r="C26">
+        <v>-0.04175942120012579</v>
+      </c>
+      <c r="D26">
+        <v>-0.02154580295856643</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.006698382199553255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0009151825029606106</v>
+      </c>
+      <c r="C28">
+        <v>-0.1059059327956004</v>
+      </c>
+      <c r="D28">
+        <v>0.3157966359264699</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001375757016824676</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.003235325286284626</v>
+      </c>
+      <c r="C29">
+        <v>-0.04979310521728978</v>
+      </c>
+      <c r="D29">
+        <v>-0.004897349333574241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.003455543416909499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.00956050479780074</v>
+      </c>
+      <c r="C30">
+        <v>-0.1430401249112304</v>
+      </c>
+      <c r="D30">
+        <v>-0.09292370159901502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0009190981212395928</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006255935894230459</v>
+      </c>
+      <c r="C31">
+        <v>-0.045189495523136</v>
+      </c>
+      <c r="D31">
+        <v>-0.03021601852203513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0006840882838836361</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.004140164211367903</v>
+      </c>
+      <c r="C32">
+        <v>-0.04170375471704227</v>
+      </c>
+      <c r="D32">
+        <v>-0.01874500422146733</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002483872532109306</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008368368702511694</v>
+      </c>
+      <c r="C33">
+        <v>-0.08631829667451311</v>
+      </c>
+      <c r="D33">
+        <v>-0.0683043246404868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004244493643641109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003963376391928074</v>
+      </c>
+      <c r="C34">
+        <v>-0.05785577680071299</v>
+      </c>
+      <c r="D34">
+        <v>-0.05332876966264029</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>-0.001975699179166505</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005061672913473416</v>
+      </c>
+      <c r="C35">
+        <v>-0.0401052721887233</v>
+      </c>
+      <c r="D35">
+        <v>-0.01736511400010328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004250937365985617</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001175270002801891</v>
+      </c>
+      <c r="C36">
+        <v>-0.02470367339156871</v>
+      </c>
+      <c r="D36">
+        <v>-0.0220602343499539</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.002815431736913539</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009553948448260565</v>
+      </c>
+      <c r="C38">
+        <v>-0.03545429523134672</v>
+      </c>
+      <c r="D38">
+        <v>-0.01560876997140919</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01179536337785214</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0005143594715411702</v>
+      </c>
+      <c r="C39">
+        <v>-0.116732230643333</v>
+      </c>
+      <c r="D39">
+        <v>-0.07101097647531707</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.008848626459035317</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.002571391970350527</v>
+      </c>
+      <c r="C40">
+        <v>-0.08833401498172834</v>
+      </c>
+      <c r="D40">
+        <v>-0.01769927222160418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0001745403009842703</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007290005950830836</v>
+      </c>
+      <c r="C41">
+        <v>-0.03751629050907602</v>
+      </c>
+      <c r="D41">
+        <v>-0.0350507197581181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.003351946179780954</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003941524083901807</v>
+      </c>
+      <c r="C43">
+        <v>-0.05311621042610061</v>
+      </c>
+      <c r="D43">
+        <v>-0.02323505296202455</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.003495865150583797</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003410182730902829</v>
+      </c>
+      <c r="C44">
+        <v>-0.1100506167304379</v>
+      </c>
+      <c r="D44">
+        <v>-0.06912353790349052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001362623839478358</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.00229241159608811</v>
+      </c>
+      <c r="C46">
+        <v>-0.0337040578904747</v>
+      </c>
+      <c r="D46">
+        <v>-0.03363501270246923</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0001813826570462719</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002687034088355612</v>
+      </c>
+      <c r="C47">
+        <v>-0.0373210429911057</v>
+      </c>
+      <c r="D47">
+        <v>-0.02252278174724412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003389548106378478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.00656848265438453</v>
+      </c>
+      <c r="C48">
+        <v>-0.030038473233213</v>
+      </c>
+      <c r="D48">
+        <v>-0.03183403519571623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.01332165873951807</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01530922528559808</v>
+      </c>
+      <c r="C49">
+        <v>-0.1830221167941512</v>
+      </c>
+      <c r="D49">
+        <v>-0.01189219945548558</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001846916899286152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003639761289145635</v>
+      </c>
+      <c r="C50">
+        <v>-0.0441947400762821</v>
+      </c>
+      <c r="D50">
+        <v>-0.033634856294561</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007802358571605267</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004458262821168132</v>
+      </c>
+      <c r="C51">
+        <v>-0.02676753432316186</v>
+      </c>
+      <c r="D51">
+        <v>-0.01820192916354781</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.0002795345868172982</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02077904903169249</v>
+      </c>
+      <c r="C53">
+        <v>-0.1682376442657014</v>
+      </c>
+      <c r="D53">
+        <v>-0.02921945954541751</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.00148166056361479</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008723021635409559</v>
+      </c>
+      <c r="C54">
+        <v>-0.0554952196067597</v>
+      </c>
+      <c r="D54">
+        <v>-0.04279621089448021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.003999341133940114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009462046710714255</v>
+      </c>
+      <c r="C55">
+        <v>-0.1080726618420252</v>
+      </c>
+      <c r="D55">
+        <v>-0.04040101279415527</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.003116818847800604</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02001952533655809</v>
+      </c>
+      <c r="C56">
+        <v>-0.1738371515018982</v>
+      </c>
+      <c r="D56">
+        <v>-0.02945529438740522</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.007034765571952701</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01974669440776448</v>
+      </c>
+      <c r="C58">
+        <v>-0.1109610267117013</v>
+      </c>
+      <c r="D58">
+        <v>-0.05240523154784282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.007063942282249668</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.00985237737842814</v>
+      </c>
+      <c r="C59">
+        <v>-0.1613699999172452</v>
+      </c>
+      <c r="D59">
+        <v>0.3145212129876927</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004591431277172948</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02381868370411055</v>
+      </c>
+      <c r="C60">
+        <v>-0.2211557585378908</v>
+      </c>
+      <c r="D60">
+        <v>-0.03289026578889582</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01361881792376008</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001641153286276705</v>
+      </c>
+      <c r="C61">
+        <v>-0.09605936593715238</v>
+      </c>
+      <c r="D61">
+        <v>-0.05757255220461621</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1652839836789882</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1446436722380866</v>
+      </c>
+      <c r="C62">
+        <v>-0.09096086507979448</v>
+      </c>
+      <c r="D62">
+        <v>-0.04588455523805653</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.000931186183202158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.006254522781107062</v>
+      </c>
+      <c r="C63">
+        <v>-0.05551302889553873</v>
+      </c>
+      <c r="D63">
+        <v>-0.02348645833781544</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>-0.00114458927516714</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0154335908348241</v>
+      </c>
+      <c r="C64">
+        <v>-0.1059497561144078</v>
+      </c>
+      <c r="D64">
+        <v>-0.06054915536742043</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002199357380000959</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01790522056734716</v>
+      </c>
+      <c r="C65">
+        <v>-0.1230890666282622</v>
+      </c>
+      <c r="D65">
+        <v>-0.01739800675405779</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.007506479230977445</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01318408986945975</v>
+      </c>
+      <c r="C66">
+        <v>-0.1605549859168813</v>
+      </c>
+      <c r="D66">
+        <v>-0.1141481759206401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.004111870189051555</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01571639351961695</v>
+      </c>
+      <c r="C67">
+        <v>-0.06625318999077796</v>
+      </c>
+      <c r="D67">
+        <v>-0.02525136307958366</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.00702664814781988</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0005940112967435246</v>
+      </c>
+      <c r="C68">
+        <v>-0.08576595875563287</v>
+      </c>
+      <c r="D68">
+        <v>0.2561613548033598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.00228485013277279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006162215737935795</v>
+      </c>
+      <c r="C69">
+        <v>-0.0507108445781075</v>
+      </c>
+      <c r="D69">
+        <v>-0.03759686507583493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0.0004317981749628359</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001878550189630374</v>
+      </c>
+      <c r="C70">
+        <v>-0.003032693538154286</v>
+      </c>
+      <c r="D70">
+        <v>-0.002651502444073945</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.001096271182869343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005883665634663205</v>
+      </c>
+      <c r="C71">
+        <v>-0.09624068754525464</v>
+      </c>
+      <c r="D71">
+        <v>0.3065437161786449</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.004182292045062578</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01609398754117728</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530198319354963</v>
+      </c>
+      <c r="D72">
+        <v>-0.0213717123038393</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.01097935163785049</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03060329698382765</v>
+      </c>
+      <c r="C73">
+        <v>-0.2790989295476197</v>
+      </c>
+      <c r="D73">
+        <v>-0.04862817878748522</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.00423051647401965</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.001898281951127732</v>
+      </c>
+      <c r="C74">
+        <v>-0.1046896476841658</v>
+      </c>
+      <c r="D74">
+        <v>-0.03585832657318256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.002591766136228749</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01097002488378918</v>
+      </c>
+      <c r="C75">
+        <v>-0.12587415852076</v>
+      </c>
+      <c r="D75">
+        <v>-0.02286630203345106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.009894460040112622</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02175524566885232</v>
+      </c>
+      <c r="C76">
+        <v>-0.1487753675977778</v>
+      </c>
+      <c r="D76">
+        <v>-0.05983399683985756</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0007152121080670155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02384786071503705</v>
+      </c>
+      <c r="C77">
+        <v>-0.129184632042438</v>
+      </c>
+      <c r="D77">
+        <v>-0.08693410126000913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.0006469337468231715</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01472307582161698</v>
+      </c>
+      <c r="C78">
+        <v>-0.09565290161064262</v>
+      </c>
+      <c r="D78">
+        <v>-0.07031285716918044</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02295173349667251</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.0376090134400335</v>
+      </c>
+      <c r="C79">
+        <v>-0.1546039024127701</v>
+      </c>
+      <c r="D79">
+        <v>-0.03449814928430928</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.006339345202358793</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01050042302838116</v>
+      </c>
+      <c r="C80">
+        <v>-0.04131329305286802</v>
+      </c>
+      <c r="D80">
+        <v>-0.02943989090682978</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001399829347807302</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01547751181825652</v>
+      </c>
+      <c r="C81">
+        <v>-0.1274389835606829</v>
+      </c>
+      <c r="D81">
+        <v>-0.03961465596102137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.005637548242004312</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0197772021394155</v>
+      </c>
+      <c r="C82">
+        <v>-0.1409437743078364</v>
+      </c>
+      <c r="D82">
+        <v>-0.04205776003914789</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.008188825561361199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01009458703701917</v>
+      </c>
+      <c r="C83">
+        <v>-0.05736720576668593</v>
+      </c>
+      <c r="D83">
+        <v>-0.05823063068293324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.01334375499361729</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01169720263727817</v>
+      </c>
+      <c r="C84">
+        <v>-0.03670602221203126</v>
+      </c>
+      <c r="D84">
+        <v>0.01100398625252614</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01344130788743846</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02818310804321105</v>
+      </c>
+      <c r="C85">
+        <v>-0.1245403144141257</v>
+      </c>
+      <c r="D85">
+        <v>-0.04381848850946832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.002324796220051595</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005929266716926422</v>
+      </c>
+      <c r="C86">
+        <v>-0.05001830276452084</v>
+      </c>
+      <c r="D86">
+        <v>-0.02073640928583867</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.00283216834264489</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.0102376388859084</v>
+      </c>
+      <c r="C87">
+        <v>-0.1307920083728689</v>
+      </c>
+      <c r="D87">
+        <v>-0.07126863668009029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01190535299050252</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002780449061663443</v>
+      </c>
+      <c r="C88">
+        <v>-0.06717533744919467</v>
+      </c>
+      <c r="D88">
+        <v>-0.01369635383042662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01423340891657814</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.00130158956507718</v>
+      </c>
+      <c r="C89">
+        <v>-0.1466403041981471</v>
+      </c>
+      <c r="D89">
+        <v>0.3426141548780157</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.003633685912624053</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.007004579788692695</v>
+      </c>
+      <c r="C90">
+        <v>-0.1214123032974077</v>
+      </c>
+      <c r="D90">
+        <v>0.3235567554132934</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0006791154259187264</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01053466522947765</v>
+      </c>
+      <c r="C91">
+        <v>-0.1024350530567399</v>
+      </c>
+      <c r="D91">
+        <v>-0.0199117630511728</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.008828621729042285</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0009413118975275995</v>
+      </c>
+      <c r="C92">
+        <v>-0.1358005717920879</v>
+      </c>
+      <c r="D92">
+        <v>0.3290517939710064</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.0007526893004840258</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004858893773708656</v>
+      </c>
+      <c r="C93">
+        <v>-0.1040550589139345</v>
+      </c>
+      <c r="D93">
+        <v>0.3059365188461275</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.002959553267040453</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02263133170860138</v>
+      </c>
+      <c r="C94">
+        <v>-0.1479802239777694</v>
+      </c>
+      <c r="D94">
+        <v>-0.05022047352166938</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.004002765983640302</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.0164686559639938</v>
+      </c>
+      <c r="C95">
+        <v>-0.1274594202859208</v>
+      </c>
+      <c r="D95">
+        <v>-0.05732725074978622</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0002187975022875815</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03597567099279418</v>
+      </c>
+      <c r="C97">
+        <v>-0.211507067687561</v>
+      </c>
+      <c r="D97">
+        <v>0.01184922952290133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.003782496066255457</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03671632391848405</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496109186495575</v>
+      </c>
+      <c r="D98">
+        <v>-0.04723076457458372</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.984453384332027</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9822214520594714</v>
+      </c>
+      <c r="C99">
+        <v>0.1162835779175831</v>
+      </c>
+      <c r="D99">
+        <v>0.02726836306213692</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.001285112895895229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.003272256378564767</v>
+      </c>
+      <c r="C101">
+        <v>-0.0499798096380715</v>
+      </c>
+      <c r="D101">
+        <v>-0.005005550783401281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
